--- a/back-end/Web Dinamico/MRVMinem/Documentos/1.5 Plantilla_Iluminacion_residencial.xlsx
+++ b/back-end/Web Dinamico/MRVMinem/Documentos/1.5 Plantilla_Iluminacion_residencial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\ALFREDO\Archivos Compu DELL\Escritorio\MRV MINEM 1.0 Tercer Entregable-Mantenimientos\Enfoque excel\Enfoque Iluminaciòn Residencial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840AF54D-4D88-4FFB-A3E7-B8E1F9B98A9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B869F23C-A52D-4FB8-B610-92A7D0F8AE68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{38F91648-8E81-4530-8820-7CE20EF243A4}"/>
   </bookViews>
@@ -797,7 +797,7 @@
   <dimension ref="A1:G311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
